--- a/templates/AutomationOrg/POLoader_AutomationOrg.xlsx
+++ b/templates/AutomationOrg/POLoader_AutomationOrg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Namrata\git\rsqasampleproj\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3274D562-EB22-4AA6-A42A-462E2F194FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F386001-456E-4AE5-8960-9B3D28D88D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="4" xr2:uid="{B6C21A89-21B4-4624-A955-66D166717697}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{B6C21A89-21B4-4624-A955-66D166717697}"/>
   </bookViews>
   <sheets>
     <sheet name="AddBoth" sheetId="15" r:id="rId1"/>
@@ -165,35 +165,35 @@
     <t>a8d5f0000004JbG</t>
   </si>
   <si>
-    <t>a4X5f000000tkbm</t>
-  </si>
-  <si>
-    <t>a4X5f000000tkbw</t>
-  </si>
-  <si>
     <t>a3A5f000000xGXA</t>
   </si>
   <si>
-    <t>a415f000000lOC4</t>
-  </si>
-  <si>
-    <t>a415f000000lOCE</t>
-  </si>
-  <si>
-    <t>a415f000000lOC9</t>
-  </si>
-  <si>
-    <t>a415f000000lOCn</t>
-  </si>
-  <si>
-    <t>a415f000000lOCi</t>
+    <t>SB-24808 (1103)</t>
+  </si>
+  <si>
+    <t>BC Vendor INR (1097)</t>
+  </si>
+  <si>
+    <t>NPAuto_Purchased (Purchased item for automation)</t>
+  </si>
+  <si>
+    <t>NPAuto_Purchased_SRL (Purchased serial for automation)</t>
+  </si>
+  <si>
+    <t>NPAuto_Subcontract (Subcontract item for automation)</t>
+  </si>
+  <si>
+    <t>NPAuto_Service Item (Automation testing)</t>
+  </si>
+  <si>
+    <t>NPAuto_Indirect Item (Automation testing)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +205,12 @@
       <sz val="9"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -228,9 +234,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,7 +555,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,7 +636,7 @@
         <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
         <v>17</v>
@@ -656,7 +663,7 @@
         <v>200.55</v>
       </c>
       <c r="P2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -679,7 +686,7 @@
         <v>39</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
         <v>17</v>
@@ -706,7 +713,7 @@
         <v>200.55</v>
       </c>
       <c r="P3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -729,7 +736,7 @@
         <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
         <v>17</v>
@@ -756,7 +763,7 @@
         <v>200.55</v>
       </c>
       <c r="P4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -779,7 +786,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
         <v>17</v>
@@ -806,7 +813,7 @@
         <v>200.55</v>
       </c>
       <c r="P5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -916,7 +923,7 @@
         <v>1500</v>
       </c>
       <c r="O2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -963,7 +970,7 @@
         <v>2460</v>
       </c>
       <c r="O3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -976,7 +983,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,7 +1049,7 @@
         <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>43</v>
@@ -1054,7 +1061,7 @@
         <v>450</v>
       </c>
       <c r="J2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1074,7 +1081,7 @@
         <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>43</v>
@@ -1086,11 +1093,12 @@
         <v>300</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1099,14 +1107,14 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1133,8 +1141,8 @@
       <c r="C2" t="s">
         <v>39</v>
       </c>
-      <c r="D2" t="s">
-        <v>40</v>
+      <c r="D2" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1147,12 +1155,13 @@
       <c r="C3" t="s">
         <v>39</v>
       </c>
-      <c r="D3" t="s">
-        <v>41</v>
+      <c r="D3" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1160,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CED5C95-0955-431B-94C2-D9DAA0C46B5F}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1212,13 +1221,13 @@
         <v>43</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
         <v>37</v>
@@ -1233,8 +1242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D68A558F-1570-4CED-A748-7B569825A34D}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,13 +1289,13 @@
         <v>46</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>15.897</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1303,13 +1312,13 @@
         <v>47</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>15.897</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1322,12 +1331,12 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D6"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1363,7 +1372,7 @@
       <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>43</v>
       </c>
       <c r="E2">
@@ -1373,7 +1382,7 @@
         <v>33.768000000000001</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1386,7 +1395,7 @@
       <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>44</v>
       </c>
       <c r="E3">
@@ -1396,7 +1405,7 @@
         <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1409,7 +1418,7 @@
       <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>45</v>
       </c>
       <c r="E4">
@@ -1419,7 +1428,7 @@
         <v>100</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1432,7 +1441,7 @@
       <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>46</v>
       </c>
       <c r="E5">
@@ -1442,7 +1451,7 @@
         <v>340</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1455,7 +1464,7 @@
       <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>47</v>
       </c>
       <c r="E6">
@@ -1465,7 +1474,7 @@
         <v>22.69</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1478,13 +1487,14 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1542,7 +1552,7 @@
         <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -1580,7 +1590,7 @@
         <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -1618,7 +1628,7 @@
         <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
         <v>28</v>
@@ -1656,7 +1666,7 @@
         <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
         <v>29</v>
@@ -1679,6 +1689,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1687,7 +1698,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1795,7 +1806,7 @@
         <v>10</v>
       </c>
       <c r="P2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1845,7 +1856,7 @@
         <v>1000</v>
       </c>
       <c r="P3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1858,12 +1869,13 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1919,10 +1931,10 @@
         <v>6</v>
       </c>
       <c r="H2">
-        <v>2000</v>
+        <v>230</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1951,7 +1963,7 @@
         <v>250</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
